--- a/biology/Botanique/Cyclamen_persicum/Cyclamen_persicum.xlsx
+++ b/biology/Botanique/Cyclamen_persicum/Cyclamen_persicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclamen persicum Mill. est une espèce de plantes à fleurs de la famille des Primulaceae originaire de l’ouest de l’Asie mineure, depuis le sud-ouest de la Turquie (province de Hatay) jusqu’en Israël et en Jordanie.
 Sa présence sur les îles grecques de Rhodes, Karpathos et Crète, et dans le nord de l’Afrique (Algérie et Tunisie) semble être la conséquence d’introduction par des moines ou d’autres ordres religieux, car ses stations s’y trouvent à proximité de monastères ou dans des cimetières.
@@ -518,7 +530,9 @@
           <t>Le cyclamen de Somalie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclamen somalense Thulin &amp; Warfa, qui n’a été découvert qu’en 1986, est un endémique des montagnes du nord-est de la Somalie, où il pousse entre 1 250 et 1 600 m d’altitude dans des crevasses exposées au Nord.
 Les fleurs assez petites, qui apparaissent en automne avec les feuilles, ressemblent à celles de Cyclamen persicum et, comme chez cette espèce, les pédoncules floraux ne s’enroulent pas après fécondation. Les feuilles charnues, sont d’un vert mat avec des marbrures argentées.
@@ -550,7 +564,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’exception de certains clones originaires des hauteurs du Golan, qui peuvent être cultivés en pleine terre dans des régions au climat clément, Cyclamen persicum doit être cultivé en serre froide.
 Certains cultivars ont de jolies feuilles marbrées, voire argentées avec un motif en ‘sapin de Noël’ (cultivar ‘Silver leaf’). ‘Tilebarn Karpathos’ est une sélection à fleurs cerise.
